--- a/ranking3.xlsx
+++ b/ranking3.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -10,12 +10,12 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09732341-AE3F-43E7-B2AF-53DFE568D551}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" fullCalcOnLoad="true"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,9 +25,165 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
-  <si>
-    <t>Nick</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+  <si>
+    <t>Nick</t>
+  </si>
+  <si>
+    <t>IloscKilogramow</t>
+  </si>
+  <si>
+    <t>Nick</t>
+  </si>
+  <si>
+    <t>dominikab</t>
+  </si>
+  <si>
+    <t>IloscKilogramow</t>
+  </si>
+  <si>
+    <t>Nick</t>
+  </si>
+  <si>
+    <t>dominikab</t>
+  </si>
+  <si>
+    <t>AlicjaCh</t>
+  </si>
+  <si>
+    <t>IloscKilogramow</t>
+  </si>
+  <si>
+    <t>Nick</t>
+  </si>
+  <si>
+    <t>dominikab</t>
+  </si>
+  <si>
+    <t>AlicjaCh</t>
+  </si>
+  <si>
+    <t>NataliaD</t>
+  </si>
+  <si>
+    <t>IloscKilogramow</t>
+  </si>
+  <si>
+    <t>Nick</t>
+  </si>
+  <si>
+    <t>dominikab</t>
+  </si>
+  <si>
+    <t>AlicjaCh</t>
+  </si>
+  <si>
+    <t>NataliaD</t>
+  </si>
+  <si>
+    <t>NataliaSz</t>
+  </si>
+  <si>
+    <t>IloscKilogramow</t>
+  </si>
+  <si>
+    <t>Nick</t>
+  </si>
+  <si>
+    <t>dominikab</t>
+  </si>
+  <si>
+    <t>AlicjaCh</t>
+  </si>
+  <si>
+    <t>NataliaD</t>
+  </si>
+  <si>
+    <t>NataliaSz</t>
+  </si>
+  <si>
+    <t>KacperCh</t>
+  </si>
+  <si>
+    <t>IloscKilogramow</t>
+  </si>
+  <si>
+    <t>Nick</t>
+  </si>
+  <si>
+    <t>dominikab</t>
+  </si>
+  <si>
+    <t>AlicjaCh</t>
+  </si>
+  <si>
+    <t>NataliaD</t>
+  </si>
+  <si>
+    <t>NataliaSz</t>
+  </si>
+  <si>
+    <t>KacperCh</t>
+  </si>
+  <si>
+    <t>MateuszS</t>
+  </si>
+  <si>
+    <t>IloscKilogramow</t>
+  </si>
+  <si>
+    <t>Nick</t>
+  </si>
+  <si>
+    <t>dominikab</t>
+  </si>
+  <si>
+    <t>AlicjaCh</t>
+  </si>
+  <si>
+    <t>NataliaD</t>
+  </si>
+  <si>
+    <t>NataliaSz</t>
+  </si>
+  <si>
+    <t>KacperCh</t>
+  </si>
+  <si>
+    <t>MateuszS</t>
+  </si>
+  <si>
+    <t>KamilG</t>
+  </si>
+  <si>
+    <t>IloscKilogramow</t>
+  </si>
+  <si>
+    <t>Nick</t>
+  </si>
+  <si>
+    <t>dominikab</t>
+  </si>
+  <si>
+    <t>AlicjaCh</t>
+  </si>
+  <si>
+    <t>NataliaD</t>
+  </si>
+  <si>
+    <t>NataliaSz</t>
+  </si>
+  <si>
+    <t>KacperCh</t>
+  </si>
+  <si>
+    <t>MateuszS</t>
+  </si>
+  <si>
+    <t>KamilG</t>
+  </si>
+  <si>
+    <t>AlicjaCh</t>
   </si>
   <si>
     <t>IloscKilogramow</t>
@@ -54,7 +210,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -62,12 +218,28 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -348,23 +520,88 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="true" workbookViewId="0">
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.6015625" bestFit="true" customWidth="true"/>
+    <col min="1" max="1" width="9.6015625" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" s="0">
         <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9" s="0">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
